--- a/Tables/env_correlation.xlsx
+++ b/Tables/env_correlation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F21BFF-0066-7445-BD39-B576C9542053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629B2D5D-B1E5-4F41-ABE1-E6E42F8CACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D6929664-222A-DD42-8249-CBB96035C6F7}"/>
   </bookViews>
@@ -37,23 +37,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>SPEI_lag0</t>
+    <t>SPEI</t>
   </si>
   <si>
-    <t>CMDA_lag0</t>
+    <t>CMDA</t>
   </si>
   <si>
-    <t>MAPA_lag0</t>
+    <t>MAPA</t>
   </si>
   <si>
-    <t>MATA_lag0</t>
+    <t>MATA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,16 +61,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -78,12 +92,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,91 +470,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961A63FF-A78A-0B4F-B780-F024F3E8D6C3}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>-0.6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>-0.87</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>-0.65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>-0.6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>0.45</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>-0.87</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>0.45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>0.43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>-0.65</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>0.77</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>0.43</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
     </row>
